--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vwf-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vwf-Itga2b.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>75.4398805</v>
+        <v>28.9850325</v>
       </c>
       <c r="H2">
-        <v>150.879761</v>
+        <v>57.970065</v>
       </c>
       <c r="I2">
-        <v>0.712088134965885</v>
+        <v>0.345760989142131</v>
       </c>
       <c r="J2">
-        <v>0.6233963611410914</v>
+        <v>0.2610112048107918</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.2502825</v>
+        <v>1.797327</v>
       </c>
       <c r="N2">
-        <v>2.500565</v>
+        <v>3.594654</v>
       </c>
       <c r="O2">
-        <v>0.1638687485091313</v>
+        <v>0.2743702177610106</v>
       </c>
       <c r="P2">
-        <v>0.1262743888059313</v>
+        <v>0.2103948698744895</v>
       </c>
       <c r="Q2">
-        <v>94.32116239124124</v>
+        <v>52.09558150812749</v>
       </c>
       <c r="R2">
-        <v>377.284649564965</v>
+        <v>208.38232603251</v>
       </c>
       <c r="S2">
-        <v>0.116688991505061</v>
+        <v>0.0948665178841889</v>
       </c>
       <c r="T2">
-        <v>0.07871899448693297</v>
+        <v>0.05491541847195027</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>75.4398805</v>
+        <v>28.9850325</v>
       </c>
       <c r="H3">
-        <v>150.879761</v>
+        <v>57.970065</v>
       </c>
       <c r="I3">
-        <v>0.712088134965885</v>
+        <v>0.345760989142131</v>
       </c>
       <c r="J3">
-        <v>0.6233963611410914</v>
+        <v>0.2610112048107918</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.790442000000001</v>
       </c>
       <c r="O3">
-        <v>0.3403524085884521</v>
+        <v>0.3964155786147101</v>
       </c>
       <c r="P3">
-        <v>0.3934044114342388</v>
+        <v>0.4559740745158667</v>
       </c>
       <c r="Q3">
-        <v>195.903337840727</v>
+        <v>75.268738186455</v>
       </c>
       <c r="R3">
-        <v>1175.420027044362</v>
+        <v>451.61242911873</v>
       </c>
       <c r="S3">
-        <v>0.2423609118628977</v>
+        <v>0.1370650425731724</v>
       </c>
       <c r="T3">
-        <v>0.2452468785449572</v>
+        <v>0.1190143425518721</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>75.4398805</v>
+        <v>28.9850325</v>
       </c>
       <c r="H4">
-        <v>150.879761</v>
+        <v>57.970065</v>
       </c>
       <c r="I4">
-        <v>0.712088134965885</v>
+        <v>0.345760989142131</v>
       </c>
       <c r="J4">
-        <v>0.6233963611410914</v>
+        <v>0.2610112048107918</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2737596666666667</v>
+        <v>0.498528</v>
       </c>
       <c r="N4">
-        <v>0.8212790000000001</v>
+        <v>1.495584</v>
       </c>
       <c r="O4">
-        <v>0.03588041420154535</v>
+        <v>0.07610258785405276</v>
       </c>
       <c r="P4">
-        <v>0.04147322855600494</v>
+        <v>0.08753643634863567</v>
       </c>
       <c r="Q4">
-        <v>20.65239653905317</v>
+        <v>14.44985028216</v>
       </c>
       <c r="R4">
-        <v>123.914379234319</v>
+        <v>86.69910169296</v>
       </c>
       <c r="S4">
-        <v>0.02555001723058188</v>
+        <v>0.02631330605269321</v>
       </c>
       <c r="T4">
-        <v>0.02585425976658628</v>
+        <v>0.02284799071620058</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>75.4398805</v>
+        <v>28.9850325</v>
       </c>
       <c r="H5">
-        <v>150.879761</v>
+        <v>57.970065</v>
       </c>
       <c r="I5">
-        <v>0.712088134965885</v>
+        <v>0.345760989142131</v>
       </c>
       <c r="J5">
-        <v>0.6233963611410914</v>
+        <v>0.2610112048107918</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.8364275</v>
+        <v>0.7696084999999999</v>
       </c>
       <c r="N5">
-        <v>3.672855</v>
+        <v>1.539217</v>
       </c>
       <c r="O5">
-        <v>0.2406920645156217</v>
+        <v>0.1174842706617798</v>
       </c>
       <c r="P5">
-        <v>0.1854730912005122</v>
+        <v>0.09009027306205331</v>
       </c>
       <c r="Q5">
-        <v>138.5398711469138</v>
+        <v>22.30712738477625</v>
       </c>
       <c r="R5">
-        <v>554.159484587655</v>
+        <v>89.22850953910499</v>
       </c>
       <c r="S5">
-        <v>0.1713939633220175</v>
+        <v>0.04062147763265882</v>
       </c>
       <c r="T5">
-        <v>0.1156232501439891</v>
+        <v>0.02351457071365975</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>75.4398805</v>
+        <v>28.9850325</v>
       </c>
       <c r="H6">
-        <v>150.879761</v>
+        <v>57.970065</v>
       </c>
       <c r="I6">
-        <v>0.712088134965885</v>
+        <v>0.345760989142131</v>
       </c>
       <c r="J6">
-        <v>0.6233963611410914</v>
+        <v>0.2610112048107918</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8795939999999999</v>
+        <v>0.6911576666666667</v>
       </c>
       <c r="N6">
-        <v>2.638782</v>
+        <v>2.073473</v>
       </c>
       <c r="O6">
-        <v>0.1152843201245645</v>
+        <v>0.105508390799518</v>
       </c>
       <c r="P6">
-        <v>0.1332541182661091</v>
+        <v>0.1213602427447169</v>
       </c>
       <c r="Q6">
-        <v>66.35646624851699</v>
+        <v>20.0332274309575</v>
       </c>
       <c r="R6">
-        <v>398.1387974911019</v>
+        <v>120.199364585745</v>
       </c>
       <c r="S6">
-        <v>0.08209259650831119</v>
+        <v>0.03648068556563586</v>
       </c>
       <c r="T6">
-        <v>0.08307013243415703</v>
+        <v>0.0316763831749287</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.4398805</v>
+        <v>28.9850325</v>
       </c>
       <c r="H7">
-        <v>150.879761</v>
+        <v>57.970065</v>
       </c>
       <c r="I7">
-        <v>0.712088134965885</v>
+        <v>0.345760989142131</v>
       </c>
       <c r="J7">
-        <v>0.6233963611410914</v>
+        <v>0.2610112048107918</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7929023333333333</v>
+        <v>0.1973013333333333</v>
       </c>
       <c r="N7">
-        <v>2.378707</v>
+        <v>0.591904</v>
       </c>
       <c r="O7">
-        <v>0.103922044060685</v>
+        <v>0.03011895430892898</v>
       </c>
       <c r="P7">
-        <v>0.1201207617372036</v>
+        <v>0.03464410345423784</v>
       </c>
       <c r="Q7">
-        <v>59.81645727483783</v>
+        <v>5.71878555896</v>
       </c>
       <c r="R7">
-        <v>358.898743649027</v>
+        <v>34.31271335376</v>
       </c>
       <c r="S7">
-        <v>0.07400165453701571</v>
+        <v>0.01041395943378193</v>
       </c>
       <c r="T7">
-        <v>0.07488284576446876</v>
+        <v>0.009042499182180331</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.02401033333333334</v>
+        <v>0.02401033333333333</v>
       </c>
       <c r="H8">
-        <v>0.07203100000000001</v>
+        <v>0.072031</v>
       </c>
       <c r="I8">
-        <v>0.0002266370700738657</v>
+        <v>0.0002864180539720152</v>
       </c>
       <c r="J8">
-        <v>0.0002976135632223991</v>
+        <v>0.0003243208040861459</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.2502825</v>
+        <v>1.797327</v>
       </c>
       <c r="N8">
-        <v>2.500565</v>
+        <v>3.594654</v>
       </c>
       <c r="O8">
-        <v>0.1638687485091313</v>
+        <v>0.2743702177610106</v>
       </c>
       <c r="P8">
-        <v>0.1262743888059313</v>
+        <v>0.2103948698744895</v>
       </c>
       <c r="Q8">
-        <v>0.03001969958583334</v>
+        <v>0.043154420379</v>
       </c>
       <c r="R8">
-        <v>0.180118197515</v>
+        <v>0.258926522274</v>
       </c>
       <c r="S8">
-        <v>3.713873303878068E-05</v>
+        <v>7.858458383898667E-05</v>
       </c>
       <c r="T8">
-        <v>3.758097079626385E-05</v>
+        <v>6.823543337329449E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.02401033333333334</v>
+        <v>0.02401033333333333</v>
       </c>
       <c r="H9">
-        <v>0.07203100000000001</v>
+        <v>0.072031</v>
       </c>
       <c r="I9">
-        <v>0.0002266370700738657</v>
+        <v>0.0002864180539720152</v>
       </c>
       <c r="J9">
-        <v>0.0002976135632223991</v>
+        <v>0.0003243208040861459</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>7.790442000000001</v>
       </c>
       <c r="O9">
-        <v>0.3403524085884521</v>
+        <v>0.3964155786147101</v>
       </c>
       <c r="P9">
-        <v>0.3934044114342388</v>
+        <v>0.4559740745158667</v>
       </c>
       <c r="Q9">
-        <v>0.06235036974466669</v>
+        <v>0.06235036974466666</v>
       </c>
       <c r="R9">
-        <v>0.5611533277020001</v>
+        <v>0.561153327702</v>
       </c>
       <c r="S9">
-        <v>7.713647267507E-05</v>
+        <v>0.0001135405785910156</v>
       </c>
       <c r="T9">
-        <v>0.0001170824886743545</v>
+        <v>0.0001478818784894221</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.02401033333333334</v>
+        <v>0.02401033333333333</v>
       </c>
       <c r="H10">
-        <v>0.07203100000000001</v>
+        <v>0.072031</v>
       </c>
       <c r="I10">
-        <v>0.0002266370700738657</v>
+        <v>0.0002864180539720152</v>
       </c>
       <c r="J10">
-        <v>0.0002976135632223991</v>
+        <v>0.0003243208040861459</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2737596666666667</v>
+        <v>0.498528</v>
       </c>
       <c r="N10">
-        <v>0.8212790000000001</v>
+        <v>1.495584</v>
       </c>
       <c r="O10">
-        <v>0.03588041420154535</v>
+        <v>0.07610258785405276</v>
       </c>
       <c r="P10">
-        <v>0.04147322855600494</v>
+        <v>0.08753643634863567</v>
       </c>
       <c r="Q10">
-        <v>0.006573060849888891</v>
+        <v>0.011969823456</v>
       </c>
       <c r="R10">
-        <v>0.05915754764900002</v>
+        <v>0.107728411104</v>
       </c>
       <c r="S10">
-        <v>8.13183194767496E-06</v>
+        <v>2.179715511539211E-05</v>
       </c>
       <c r="T10">
-        <v>1.234299532888958E-05</v>
+        <v>2.838988742342525E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.02401033333333334</v>
+        <v>0.02401033333333333</v>
       </c>
       <c r="H11">
-        <v>0.07203100000000001</v>
+        <v>0.072031</v>
       </c>
       <c r="I11">
-        <v>0.0002266370700738657</v>
+        <v>0.0002864180539720152</v>
       </c>
       <c r="J11">
-        <v>0.0002976135632223991</v>
+        <v>0.0003243208040861459</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.8364275</v>
+        <v>0.7696084999999999</v>
       </c>
       <c r="N11">
-        <v>3.672855</v>
+        <v>1.539217</v>
       </c>
       <c r="O11">
-        <v>0.2406920645156217</v>
+        <v>0.1174842706617798</v>
       </c>
       <c r="P11">
-        <v>0.1854730912005122</v>
+        <v>0.09009027306205331</v>
       </c>
       <c r="Q11">
-        <v>0.04409323641750001</v>
+        <v>0.01847855662116666</v>
       </c>
       <c r="R11">
-        <v>0.264559418505</v>
+        <v>0.110871339727</v>
       </c>
       <c r="S11">
-        <v>5.454974429185036E-05</v>
+        <v>3.364961617526848E-05</v>
       </c>
       <c r="T11">
-        <v>5.519930755405744E-05</v>
+        <v>2.921814979982558E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.02401033333333334</v>
+        <v>0.02401033333333333</v>
       </c>
       <c r="H12">
-        <v>0.07203100000000001</v>
+        <v>0.072031</v>
       </c>
       <c r="I12">
-        <v>0.0002266370700738657</v>
+        <v>0.0002864180539720152</v>
       </c>
       <c r="J12">
-        <v>0.0002976135632223991</v>
+        <v>0.0003243208040861459</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8795939999999999</v>
+        <v>0.6911576666666667</v>
       </c>
       <c r="N12">
-        <v>2.638782</v>
+        <v>2.073473</v>
       </c>
       <c r="O12">
-        <v>0.1152843201245645</v>
+        <v>0.105508390799518</v>
       </c>
       <c r="P12">
-        <v>0.1332541182661091</v>
+        <v>0.1213602427447169</v>
       </c>
       <c r="Q12">
-        <v>0.021119345138</v>
+        <v>0.01659492596255556</v>
       </c>
       <c r="R12">
-        <v>0.190074106242</v>
+        <v>0.149354333663</v>
       </c>
       <c r="S12">
-        <v>2.61277005384889E-05</v>
+        <v>3.021950797051681E-05</v>
       </c>
       <c r="T12">
-        <v>3.965823295123569E-05</v>
+        <v>3.935965151105642E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.02401033333333334</v>
+        <v>0.02401033333333333</v>
       </c>
       <c r="H13">
-        <v>0.07203100000000001</v>
+        <v>0.072031</v>
       </c>
       <c r="I13">
-        <v>0.0002266370700738657</v>
+        <v>0.0002864180539720152</v>
       </c>
       <c r="J13">
-        <v>0.0002976135632223991</v>
+        <v>0.0003243208040861459</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.7929023333333333</v>
+        <v>0.1973013333333333</v>
       </c>
       <c r="N13">
-        <v>2.378707</v>
+        <v>0.591904</v>
       </c>
       <c r="O13">
-        <v>0.103922044060685</v>
+        <v>0.03011895430892898</v>
       </c>
       <c r="P13">
-        <v>0.1201207617372036</v>
+        <v>0.03464410345423784</v>
       </c>
       <c r="Q13">
-        <v>0.01903784932411111</v>
+        <v>0.004737270780444444</v>
       </c>
       <c r="R13">
-        <v>0.171340643917</v>
+        <v>0.04263543702399999</v>
       </c>
       <c r="S13">
-        <v>2.355258758200083E-05</v>
+        <v>8.626612280835479E-06</v>
       </c>
       <c r="T13">
-        <v>3.574956791759797E-05</v>
+        <v>1.123580348912204E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.035881666666667</v>
+        <v>3.088890333333333</v>
       </c>
       <c r="H14">
-        <v>6.107645</v>
+        <v>9.266670999999999</v>
       </c>
       <c r="I14">
-        <v>0.0192169866842234</v>
+        <v>0.03684721681802151</v>
       </c>
       <c r="J14">
-        <v>0.02523521804983228</v>
+        <v>0.04172334397581277</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.2502825</v>
+        <v>1.797327</v>
       </c>
       <c r="N14">
-        <v>2.500565</v>
+        <v>3.594654</v>
       </c>
       <c r="O14">
-        <v>0.1638687485091313</v>
+        <v>0.2743702177610106</v>
       </c>
       <c r="P14">
-        <v>0.1262743888059313</v>
+        <v>0.2103948698744895</v>
       </c>
       <c r="Q14">
-        <v>2.545427219904167</v>
+        <v>5.551745996138999</v>
       </c>
       <c r="R14">
-        <v>15.272563319425</v>
+        <v>33.31047597683399</v>
       </c>
       <c r="S14">
-        <v>0.003149063558060329</v>
+        <v>0.01010977890224773</v>
       </c>
       <c r="T14">
-        <v>0.003186561735626978</v>
+        <v>0.008778377526519695</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.035881666666667</v>
+        <v>3.088890333333333</v>
       </c>
       <c r="H15">
-        <v>6.107645</v>
+        <v>9.266670999999999</v>
       </c>
       <c r="I15">
-        <v>0.0192169866842234</v>
+        <v>0.03684721681802151</v>
       </c>
       <c r="J15">
-        <v>0.02523521804983228</v>
+        <v>0.04172334397581277</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.790442000000001</v>
       </c>
       <c r="O15">
-        <v>0.3403524085884521</v>
+        <v>0.3964155786147101</v>
       </c>
       <c r="P15">
-        <v>0.3934044114342388</v>
+        <v>0.4559740745158667</v>
       </c>
       <c r="Q15">
-        <v>5.286806014343333</v>
+        <v>8.021273662064667</v>
       </c>
       <c r="R15">
-        <v>47.58125412909</v>
+        <v>72.19146295858199</v>
       </c>
       <c r="S15">
-        <v>0.006540547703787644</v>
+        <v>0.01460681077525767</v>
       </c>
       <c r="T15">
-        <v>0.00992764610430895</v>
+        <v>0.01902476315507839</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.035881666666667</v>
+        <v>3.088890333333333</v>
       </c>
       <c r="H16">
-        <v>6.107645</v>
+        <v>9.266670999999999</v>
       </c>
       <c r="I16">
-        <v>0.0192169866842234</v>
+        <v>0.03684721681802151</v>
       </c>
       <c r="J16">
-        <v>0.02523521804983228</v>
+        <v>0.04172334397581277</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2737596666666667</v>
+        <v>0.498528</v>
       </c>
       <c r="N16">
-        <v>0.8212790000000001</v>
+        <v>1.495584</v>
       </c>
       <c r="O16">
-        <v>0.03588041420154535</v>
+        <v>0.07610258785405276</v>
       </c>
       <c r="P16">
-        <v>0.04147322855600494</v>
+        <v>0.08753643634863567</v>
       </c>
       <c r="Q16">
-        <v>0.5573422864394445</v>
+        <v>1.539898320096</v>
       </c>
       <c r="R16">
-        <v>5.016080577955</v>
+        <v>13.859084880864</v>
       </c>
       <c r="S16">
-        <v>0.0006895134419355169</v>
+        <v>0.002804168555070813</v>
       </c>
       <c r="T16">
-        <v>0.001046585965841316</v>
+        <v>0.003652312844190966</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.035881666666667</v>
+        <v>3.088890333333333</v>
       </c>
       <c r="H17">
-        <v>6.107645</v>
+        <v>9.266670999999999</v>
       </c>
       <c r="I17">
-        <v>0.0192169866842234</v>
+        <v>0.03684721681802151</v>
       </c>
       <c r="J17">
-        <v>0.02523521804983228</v>
+        <v>0.04172334397581277</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.8364275</v>
+        <v>0.7696084999999999</v>
       </c>
       <c r="N17">
-        <v>3.672855</v>
+        <v>1.539217</v>
       </c>
       <c r="O17">
-        <v>0.2406920645156217</v>
+        <v>0.1174842706617798</v>
       </c>
       <c r="P17">
-        <v>0.1854730912005122</v>
+        <v>0.09009027306205331</v>
       </c>
       <c r="Q17">
-        <v>3.7387490794125</v>
+        <v>2.377236256101166</v>
       </c>
       <c r="R17">
-        <v>22.432494476475</v>
+        <v>14.263417536607</v>
       </c>
       <c r="S17">
-        <v>0.00462537619879494</v>
+        <v>0.004328968393781723</v>
       </c>
       <c r="T17">
-        <v>0.004680453898821355</v>
+        <v>0.003758867451842949</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.035881666666667</v>
+        <v>3.088890333333333</v>
       </c>
       <c r="H18">
-        <v>6.107645</v>
+        <v>9.266670999999999</v>
       </c>
       <c r="I18">
-        <v>0.0192169866842234</v>
+        <v>0.03684721681802151</v>
       </c>
       <c r="J18">
-        <v>0.02523521804983228</v>
+        <v>0.04172334397581277</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8795939999999999</v>
+        <v>0.6911576666666667</v>
       </c>
       <c r="N18">
-        <v>2.638782</v>
+        <v>2.073473</v>
       </c>
       <c r="O18">
-        <v>0.1152843201245645</v>
+        <v>0.105508390799518</v>
       </c>
       <c r="P18">
-        <v>0.1332541182661091</v>
+        <v>0.1213602427447169</v>
       </c>
       <c r="Q18">
-        <v>1.79074929871</v>
+        <v>2.134910235375889</v>
       </c>
       <c r="R18">
-        <v>16.11674368839</v>
+        <v>19.214192118383</v>
       </c>
       <c r="S18">
-        <v>0.002215417244733504</v>
+        <v>0.003887690551910386</v>
       </c>
       <c r="T18">
-        <v>0.003362696730483401</v>
+        <v>0.005063555153025957</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.035881666666667</v>
+        <v>3.088890333333333</v>
       </c>
       <c r="H19">
-        <v>6.107645</v>
+        <v>9.266670999999999</v>
       </c>
       <c r="I19">
-        <v>0.0192169866842234</v>
+        <v>0.03684721681802151</v>
       </c>
       <c r="J19">
-        <v>0.02523521804983228</v>
+        <v>0.04172334397581277</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7929023333333333</v>
+        <v>0.1973013333333333</v>
       </c>
       <c r="N19">
-        <v>2.378707</v>
+        <v>0.591904</v>
       </c>
       <c r="O19">
-        <v>0.103922044060685</v>
+        <v>0.03011895430892898</v>
       </c>
       <c r="P19">
-        <v>0.1201207617372036</v>
+        <v>0.03464410345423784</v>
       </c>
       <c r="Q19">
-        <v>1.614255323890555</v>
+        <v>0.609442181287111</v>
       </c>
       <c r="R19">
-        <v>14.528297915015</v>
+        <v>5.484979631583999</v>
       </c>
       <c r="S19">
-        <v>0.001997068536911461</v>
+        <v>0.00110979963975319</v>
       </c>
       <c r="T19">
-        <v>0.003031273614750283</v>
+        <v>0.001445467845154809</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3568225</v>
+        <v>0.4060085</v>
       </c>
       <c r="H20">
-        <v>0.7136450000000001</v>
+        <v>0.812017</v>
       </c>
       <c r="I20">
-        <v>0.00336810009314456</v>
+        <v>0.00484325489578502</v>
       </c>
       <c r="J20">
-        <v>0.002948597566684469</v>
+        <v>0.003656120370002082</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.2502825</v>
+        <v>1.797327</v>
       </c>
       <c r="N20">
-        <v>2.500565</v>
+        <v>3.594654</v>
       </c>
       <c r="O20">
-        <v>0.1638687485091313</v>
+        <v>0.2743702177610106</v>
       </c>
       <c r="P20">
-        <v>0.1262743888059313</v>
+        <v>0.2103948698744895</v>
       </c>
       <c r="Q20">
-        <v>0.44612892735625</v>
+        <v>0.7297300392795</v>
       </c>
       <c r="R20">
-        <v>1.784515709425</v>
+        <v>2.918920157118</v>
       </c>
       <c r="S20">
-        <v>0.0005519263471170878</v>
+        <v>0.001328844900428616</v>
       </c>
       <c r="T20">
-        <v>0.0003723323555677377</v>
+        <v>0.0007692289694920585</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3568225</v>
+        <v>0.4060085</v>
       </c>
       <c r="H21">
-        <v>0.7136450000000001</v>
+        <v>0.812017</v>
       </c>
       <c r="I21">
-        <v>0.00336810009314456</v>
+        <v>0.00484325489578502</v>
       </c>
       <c r="J21">
-        <v>0.002948597566684469</v>
+        <v>0.003656120370002082</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.790442000000001</v>
       </c>
       <c r="O21">
-        <v>0.3403524085884521</v>
+        <v>0.3964155786147101</v>
       </c>
       <c r="P21">
-        <v>0.3934044114342388</v>
+        <v>0.4559740745158667</v>
       </c>
       <c r="Q21">
-        <v>0.9266016635150002</v>
+        <v>1.054328556919</v>
       </c>
       <c r="R21">
-        <v>5.559609981090001</v>
+        <v>6.325971341514</v>
       </c>
       <c r="S21">
-        <v>0.001146340979068741</v>
+        <v>0.001919941691891146</v>
       </c>
       <c r="T21">
-        <v>0.001159991290277932</v>
+        <v>0.001667096102030307</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.3568225</v>
+        <v>0.4060085</v>
       </c>
       <c r="H22">
-        <v>0.7136450000000001</v>
+        <v>0.812017</v>
       </c>
       <c r="I22">
-        <v>0.00336810009314456</v>
+        <v>0.00484325489578502</v>
       </c>
       <c r="J22">
-        <v>0.002948597566684469</v>
+        <v>0.003656120370002082</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2737596666666667</v>
+        <v>0.498528</v>
       </c>
       <c r="N22">
-        <v>0.8212790000000001</v>
+        <v>1.495584</v>
       </c>
       <c r="O22">
-        <v>0.03588041420154535</v>
+        <v>0.07610258785405276</v>
       </c>
       <c r="P22">
-        <v>0.04147322855600494</v>
+        <v>0.08753643634863567</v>
       </c>
       <c r="Q22">
-        <v>0.09768360865916668</v>
+        <v>0.202406605488</v>
       </c>
       <c r="R22">
-        <v>0.5861016519550001</v>
+        <v>1.214439632928</v>
       </c>
       <c r="S22">
-        <v>0.0001208488264142903</v>
+        <v>0.0003685842312060506</v>
       </c>
       <c r="T22">
-        <v>0.000122287860802785</v>
+        <v>0.0003200437480516375</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.3568225</v>
+        <v>0.4060085</v>
       </c>
       <c r="H23">
-        <v>0.7136450000000001</v>
+        <v>0.812017</v>
       </c>
       <c r="I23">
-        <v>0.00336810009314456</v>
+        <v>0.00484325489578502</v>
       </c>
       <c r="J23">
-        <v>0.002948597566684469</v>
+        <v>0.003656120370002082</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.8364275</v>
+        <v>0.7696084999999999</v>
       </c>
       <c r="N23">
-        <v>3.672855</v>
+        <v>1.539217</v>
       </c>
       <c r="O23">
-        <v>0.2406920645156217</v>
+        <v>0.1174842706617798</v>
       </c>
       <c r="P23">
-        <v>0.1854730912005122</v>
+        <v>0.09009027306205331</v>
       </c>
       <c r="Q23">
-        <v>0.65527865161875</v>
+        <v>0.3124675926722499</v>
       </c>
       <c r="R23">
-        <v>2.621114606475</v>
+        <v>1.249870370689</v>
       </c>
       <c r="S23">
-        <v>0.0008106749649142219</v>
+        <v>0.0005690062690603973</v>
       </c>
       <c r="T23">
-        <v>0.000546885505399277</v>
+        <v>0.0003293808824812229</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.3568225</v>
+        <v>0.4060085</v>
       </c>
       <c r="H24">
-        <v>0.7136450000000001</v>
+        <v>0.812017</v>
       </c>
       <c r="I24">
-        <v>0.00336810009314456</v>
+        <v>0.00484325489578502</v>
       </c>
       <c r="J24">
-        <v>0.002948597566684469</v>
+        <v>0.003656120370002082</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8795939999999999</v>
+        <v>0.6911576666666667</v>
       </c>
       <c r="N24">
-        <v>2.638782</v>
+        <v>2.073473</v>
       </c>
       <c r="O24">
-        <v>0.1152843201245645</v>
+        <v>0.105508390799518</v>
       </c>
       <c r="P24">
-        <v>0.1332541182661091</v>
+        <v>0.1213602427447169</v>
       </c>
       <c r="Q24">
-        <v>0.313858930065</v>
+        <v>0.2806158875068333</v>
       </c>
       <c r="R24">
-        <v>1.88315358039</v>
+        <v>1.683695325041</v>
       </c>
       <c r="S24">
-        <v>0.0003882891293496531</v>
+        <v>0.0005110040302861648</v>
       </c>
       <c r="T24">
-        <v>0.0003929127688701336</v>
+        <v>0.0004437076556073567</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.3568225</v>
+        <v>0.4060085</v>
       </c>
       <c r="H25">
-        <v>0.7136450000000001</v>
+        <v>0.812017</v>
       </c>
       <c r="I25">
-        <v>0.00336810009314456</v>
+        <v>0.00484325489578502</v>
       </c>
       <c r="J25">
-        <v>0.002948597566684469</v>
+        <v>0.003656120370002082</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.7929023333333333</v>
+        <v>0.1973013333333333</v>
       </c>
       <c r="N25">
-        <v>2.378707</v>
+        <v>0.591904</v>
       </c>
       <c r="O25">
-        <v>0.103922044060685</v>
+        <v>0.03011895430892898</v>
       </c>
       <c r="P25">
-        <v>0.1201207617372036</v>
+        <v>0.03464410345423784</v>
       </c>
       <c r="Q25">
-        <v>0.2829253928358333</v>
+        <v>0.08010601839466666</v>
       </c>
       <c r="R25">
-        <v>1.697552357015</v>
+        <v>0.480636110368</v>
       </c>
       <c r="S25">
-        <v>0.0003500198462805663</v>
+        <v>0.0001458737729126456</v>
       </c>
       <c r="T25">
-        <v>0.0003541877857666034</v>
+        <v>0.0001266630123394984</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>26.255634</v>
+        <v>47.35541733333333</v>
       </c>
       <c r="H26">
-        <v>78.766902</v>
+        <v>142.066252</v>
       </c>
       <c r="I26">
-        <v>0.2478307935205024</v>
+        <v>0.564900382237341</v>
       </c>
       <c r="J26">
-        <v>0.3254445775875597</v>
+        <v>0.6396557188175235</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.2502825</v>
+        <v>1.797327</v>
       </c>
       <c r="N26">
-        <v>2.500565</v>
+        <v>3.594654</v>
       </c>
       <c r="O26">
-        <v>0.1638687485091313</v>
+        <v>0.2743702177610106</v>
       </c>
       <c r="P26">
-        <v>0.1262743888059313</v>
+        <v>0.2103948698744895</v>
       </c>
       <c r="Q26">
-        <v>32.826959716605</v>
+        <v>85.11317016946799</v>
       </c>
       <c r="R26">
-        <v>196.96175829963</v>
+        <v>510.679021016808</v>
       </c>
       <c r="S26">
-        <v>0.04061172197622967</v>
+        <v>0.1549918408877373</v>
       </c>
       <c r="T26">
-        <v>0.0410953151250736</v>
+        <v>0.1345802817250859</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>26.255634</v>
+        <v>47.35541733333333</v>
       </c>
       <c r="H27">
-        <v>78.766902</v>
+        <v>142.066252</v>
       </c>
       <c r="I27">
-        <v>0.2478307935205024</v>
+        <v>0.564900382237341</v>
       </c>
       <c r="J27">
-        <v>0.3254445775875597</v>
+        <v>0.6396557188175235</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>7.790442000000001</v>
       </c>
       <c r="O27">
-        <v>0.3403524085884521</v>
+        <v>0.3964155786147101</v>
       </c>
       <c r="P27">
-        <v>0.3934044114342388</v>
+        <v>0.4559740745158667</v>
       </c>
       <c r="Q27">
-        <v>68.18099795007601</v>
+        <v>122.9732107070427</v>
       </c>
       <c r="R27">
-        <v>613.6289815506841</v>
+        <v>1106.758896363384</v>
       </c>
       <c r="S27">
-        <v>0.08434980749709035</v>
+        <v>0.2239353118842864</v>
       </c>
       <c r="T27">
-        <v>0.1280313325002984</v>
+        <v>0.2916664243966017</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>26.255634</v>
+        <v>47.35541733333333</v>
       </c>
       <c r="H28">
-        <v>78.766902</v>
+        <v>142.066252</v>
       </c>
       <c r="I28">
-        <v>0.2478307935205024</v>
+        <v>0.564900382237341</v>
       </c>
       <c r="J28">
-        <v>0.3254445775875597</v>
+        <v>0.6396557188175235</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2737596666666667</v>
+        <v>0.498528</v>
       </c>
       <c r="N28">
-        <v>0.8212790000000001</v>
+        <v>1.495584</v>
       </c>
       <c r="O28">
-        <v>0.03588041420154535</v>
+        <v>0.07610258785405276</v>
       </c>
       <c r="P28">
-        <v>0.04147322855600494</v>
+        <v>0.08753643634863567</v>
       </c>
       <c r="Q28">
-        <v>7.187733611962001</v>
+        <v>23.608001492352</v>
       </c>
       <c r="R28">
-        <v>64.68960250765801</v>
+        <v>212.472013431168</v>
       </c>
       <c r="S28">
-        <v>0.008892271523413289</v>
+        <v>0.04299038096800523</v>
       </c>
       <c r="T28">
-        <v>0.01349723734860134</v>
+        <v>0.05599318211531094</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>26.255634</v>
+        <v>47.35541733333333</v>
       </c>
       <c r="H29">
-        <v>78.766902</v>
+        <v>142.066252</v>
       </c>
       <c r="I29">
-        <v>0.2478307935205024</v>
+        <v>0.564900382237341</v>
       </c>
       <c r="J29">
-        <v>0.3254445775875597</v>
+        <v>0.6396557188175235</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.8364275</v>
+        <v>0.7696084999999999</v>
       </c>
       <c r="N29">
-        <v>3.672855</v>
+        <v>1.539217</v>
       </c>
       <c r="O29">
-        <v>0.2406920645156217</v>
+        <v>0.1174842706617798</v>
       </c>
       <c r="P29">
-        <v>0.1854730912005122</v>
+        <v>0.09009027306205331</v>
       </c>
       <c r="Q29">
-        <v>48.216568307535</v>
+        <v>36.44513170078066</v>
       </c>
       <c r="R29">
-        <v>289.29940984521</v>
+        <v>218.670790204684</v>
       </c>
       <c r="S29">
-        <v>0.05965090534299448</v>
+        <v>0.06636690940371462</v>
       </c>
       <c r="T29">
-        <v>0.06036121181960964</v>
+        <v>0.05762675837397468</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>26.255634</v>
+        <v>47.35541733333333</v>
       </c>
       <c r="H30">
-        <v>78.766902</v>
+        <v>142.066252</v>
       </c>
       <c r="I30">
-        <v>0.2478307935205024</v>
+        <v>0.564900382237341</v>
       </c>
       <c r="J30">
-        <v>0.3254445775875597</v>
+        <v>0.6396557188175235</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.8795939999999999</v>
+        <v>0.6911576666666667</v>
       </c>
       <c r="N30">
-        <v>2.638782</v>
+        <v>2.073473</v>
       </c>
       <c r="O30">
-        <v>0.1152843201245645</v>
+        <v>0.105508390799518</v>
       </c>
       <c r="P30">
-        <v>0.1332541182661091</v>
+        <v>0.1213602427447169</v>
       </c>
       <c r="Q30">
-        <v>23.094298132596</v>
+        <v>32.73005974813289</v>
       </c>
       <c r="R30">
-        <v>207.848683193364</v>
+        <v>294.570537733196</v>
       </c>
       <c r="S30">
-        <v>0.02857100453694245</v>
+        <v>0.05960173029189447</v>
       </c>
       <c r="T30">
-        <v>0.04336683023091658</v>
+        <v>0.077628773308741</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>26.255634</v>
+        <v>47.35541733333333</v>
       </c>
       <c r="H31">
-        <v>78.766902</v>
+        <v>142.066252</v>
       </c>
       <c r="I31">
-        <v>0.2478307935205024</v>
+        <v>0.564900382237341</v>
       </c>
       <c r="J31">
-        <v>0.3254445775875597</v>
+        <v>0.6396557188175235</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.7929023333333333</v>
+        <v>0.1973013333333333</v>
       </c>
       <c r="N31">
-        <v>2.378707</v>
+        <v>0.591904</v>
       </c>
       <c r="O31">
-        <v>0.103922044060685</v>
+        <v>0.03011895430892898</v>
       </c>
       <c r="P31">
-        <v>0.1201207617372036</v>
+        <v>0.03464410345423784</v>
       </c>
       <c r="Q31">
-        <v>20.818153461746</v>
+        <v>9.343286980423111</v>
       </c>
       <c r="R31">
-        <v>187.363381155714</v>
+        <v>84.08958282380799</v>
       </c>
       <c r="S31">
-        <v>0.02575508264383218</v>
+        <v>0.01701420880170299</v>
       </c>
       <c r="T31">
-        <v>0.03909265056306012</v>
+        <v>0.02216029889780915</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.829545333333334</v>
+        <v>3.970319333333333</v>
       </c>
       <c r="H32">
-        <v>5.488636000000001</v>
+        <v>11.910958</v>
       </c>
       <c r="I32">
-        <v>0.0172693476661707</v>
+        <v>0.04736173885274959</v>
       </c>
       <c r="J32">
-        <v>0.02267763209160966</v>
+        <v>0.05362929122178384</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.2502825</v>
+        <v>1.797327</v>
       </c>
       <c r="N32">
-        <v>2.500565</v>
+        <v>3.594654</v>
       </c>
       <c r="O32">
-        <v>0.1638687485091313</v>
+        <v>0.2743702177610106</v>
       </c>
       <c r="P32">
-        <v>0.1262743888059313</v>
+        <v>0.2103948698744895</v>
       </c>
       <c r="Q32">
-        <v>2.287448513223334</v>
+        <v>7.135962136421999</v>
       </c>
       <c r="R32">
-        <v>13.72469107934</v>
+        <v>42.815772818532</v>
       </c>
       <c r="S32">
-        <v>0.002829906389624481</v>
+        <v>0.01299465060256902</v>
       </c>
       <c r="T32">
-        <v>0.002863604131933784</v>
+        <v>0.01128332774806832</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.829545333333334</v>
+        <v>3.970319333333333</v>
       </c>
       <c r="H33">
-        <v>5.488636000000001</v>
+        <v>11.910958</v>
       </c>
       <c r="I33">
-        <v>0.0172693476661707</v>
+        <v>0.04736173885274959</v>
       </c>
       <c r="J33">
-        <v>0.02267763209160966</v>
+        <v>0.05362929122178384</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>7.790442000000001</v>
       </c>
       <c r="O33">
-        <v>0.3403524085884521</v>
+        <v>0.3964155786147101</v>
       </c>
       <c r="P33">
-        <v>0.3934044114342388</v>
+        <v>0.4559740745158667</v>
       </c>
       <c r="Q33">
-        <v>4.750988935234668</v>
+        <v>10.31018082927067</v>
       </c>
       <c r="R33">
-        <v>42.75890041711201</v>
+        <v>92.791627463436</v>
       </c>
       <c r="S33">
-        <v>0.005877664072932563</v>
+        <v>0.01877493111151152</v>
       </c>
       <c r="T33">
-        <v>0.008921480505721904</v>
+        <v>0.02445356643179478</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.829545333333334</v>
+        <v>3.970319333333333</v>
       </c>
       <c r="H34">
-        <v>5.488636000000001</v>
+        <v>11.910958</v>
       </c>
       <c r="I34">
-        <v>0.0172693476661707</v>
+        <v>0.04736173885274959</v>
       </c>
       <c r="J34">
-        <v>0.02267763209160966</v>
+        <v>0.05362929122178384</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.2737596666666667</v>
+        <v>0.498528</v>
       </c>
       <c r="N34">
-        <v>0.8212790000000001</v>
+        <v>1.495584</v>
       </c>
       <c r="O34">
-        <v>0.03588041420154535</v>
+        <v>0.07610258785405276</v>
       </c>
       <c r="P34">
-        <v>0.04147322855600494</v>
+        <v>0.08753643634863567</v>
       </c>
       <c r="Q34">
-        <v>0.500855720604889</v>
+        <v>1.979315356608</v>
       </c>
       <c r="R34">
-        <v>4.507701485444001</v>
+        <v>17.813838209472</v>
       </c>
       <c r="S34">
-        <v>0.0006196313472526953</v>
+        <v>0.003604350891962079</v>
       </c>
       <c r="T34">
-        <v>0.0009405146188443198</v>
+        <v>0.004694517037458127</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.829545333333334</v>
+        <v>3.970319333333333</v>
       </c>
       <c r="H35">
-        <v>5.488636000000001</v>
+        <v>11.910958</v>
       </c>
       <c r="I35">
-        <v>0.0172693476661707</v>
+        <v>0.04736173885274959</v>
       </c>
       <c r="J35">
-        <v>0.02267763209160966</v>
+        <v>0.05362929122178384</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.8364275</v>
+        <v>0.7696084999999999</v>
       </c>
       <c r="N35">
-        <v>3.672855</v>
+        <v>1.539217</v>
       </c>
       <c r="O35">
-        <v>0.2406920645156217</v>
+        <v>0.1174842706617798</v>
       </c>
       <c r="P35">
-        <v>0.1854730912005122</v>
+        <v>0.09009027306205331</v>
       </c>
       <c r="Q35">
-        <v>3.35982736263</v>
+        <v>3.055591506647666</v>
       </c>
       <c r="R35">
-        <v>20.15896417578</v>
+        <v>18.333549039886</v>
       </c>
       <c r="S35">
-        <v>0.004156594942608659</v>
+        <v>0.005564259346388964</v>
       </c>
       <c r="T35">
-        <v>0.004206090525138781</v>
+        <v>0.004831477490294885</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.829545333333334</v>
+        <v>3.970319333333333</v>
       </c>
       <c r="H36">
-        <v>5.488636000000001</v>
+        <v>11.910958</v>
       </c>
       <c r="I36">
-        <v>0.0172693476661707</v>
+        <v>0.04736173885274959</v>
       </c>
       <c r="J36">
-        <v>0.02267763209160966</v>
+        <v>0.05362929122178384</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.8795939999999999</v>
+        <v>0.6911576666666667</v>
       </c>
       <c r="N36">
-        <v>2.638782</v>
+        <v>2.073473</v>
       </c>
       <c r="O36">
-        <v>0.1152843201245645</v>
+        <v>0.105508390799518</v>
       </c>
       <c r="P36">
-        <v>0.1332541182661091</v>
+        <v>0.1213602427447169</v>
       </c>
       <c r="Q36">
-        <v>1.609257097928</v>
+        <v>2.744116646348222</v>
       </c>
       <c r="R36">
-        <v>14.483313881352</v>
+        <v>24.697049817134</v>
       </c>
       <c r="S36">
-        <v>0.001990885004689225</v>
+        <v>0.004997060851820619</v>
       </c>
       <c r="T36">
-        <v>0.003021887868730664</v>
+        <v>0.006508463800902801</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.829545333333334</v>
+        <v>3.970319333333333</v>
       </c>
       <c r="H37">
-        <v>5.488636000000001</v>
+        <v>11.910958</v>
       </c>
       <c r="I37">
-        <v>0.0172693476661707</v>
+        <v>0.04736173885274959</v>
       </c>
       <c r="J37">
-        <v>0.02267763209160966</v>
+        <v>0.05362929122178384</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.7929023333333333</v>
+        <v>0.1973013333333333</v>
       </c>
       <c r="N37">
-        <v>2.378707</v>
+        <v>0.591904</v>
       </c>
       <c r="O37">
-        <v>0.103922044060685</v>
+        <v>0.03011895430892898</v>
       </c>
       <c r="P37">
-        <v>0.1201207617372036</v>
+        <v>0.03464410345423784</v>
       </c>
       <c r="Q37">
-        <v>1.450650763739111</v>
+        <v>0.7833492982257777</v>
       </c>
       <c r="R37">
-        <v>13.055856873652</v>
+        <v>7.050143684031999</v>
       </c>
       <c r="S37">
-        <v>0.00179466590906308</v>
+        <v>0.001426486048497391</v>
       </c>
       <c r="T37">
-        <v>0.002724054441240206</v>
+        <v>0.001857938713264929</v>
       </c>
     </row>
   </sheetData>
